--- a/results/mp/logistic/corona/confidence/168/stop-words-desired-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/stop-words-desired-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,33 +40,30 @@
     <t>name</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
     <t>drop</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
@@ -76,94 +73,94 @@
     <t>love</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>free</t>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>confidence</t>
   </si>
   <si>
     <t>safe</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>heroes</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>care</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>protect</t>
-  </si>
-  <si>
-    <t>increase</t>
   </si>
 </sst>
 </file>
@@ -529,10 +526,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -590,13 +587,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8947368421052632</v>
+        <v>0.8356164383561644</v>
       </c>
       <c r="C3">
-        <v>34</v>
+        <v>244</v>
       </c>
       <c r="D3">
-        <v>34</v>
+        <v>244</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -608,19 +605,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K3">
-        <v>0.9782608695652174</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -632,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -640,13 +637,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8493150684931506</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C4">
-        <v>248</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>248</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -658,19 +655,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K4">
-        <v>0.9491525423728814</v>
+        <v>0.95</v>
       </c>
       <c r="L4">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="M4">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -682,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -690,7 +687,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7941176470588235</v>
+        <v>0.75</v>
       </c>
       <c r="C5">
         <v>27</v>
@@ -708,19 +705,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K5">
-        <v>0.9416666666666667</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L5">
-        <v>113</v>
+        <v>55</v>
       </c>
       <c r="M5">
-        <v>113</v>
+        <v>55</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -732,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -740,13 +737,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7027027027027027</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="C6">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -758,19 +755,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K6">
-        <v>0.9084507042253521</v>
+        <v>0.9033942558746736</v>
       </c>
       <c r="L6">
-        <v>129</v>
+        <v>346</v>
       </c>
       <c r="M6">
-        <v>129</v>
+        <v>346</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -782,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -790,7 +787,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6944444444444444</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="C7">
         <v>25</v>
@@ -808,31 +805,31 @@
         <v>0</v>
       </c>
       <c r="H7">
+        <v>13</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7">
+        <v>0.8962264150943396</v>
+      </c>
+      <c r="L7">
+        <v>95</v>
+      </c>
+      <c r="M7">
+        <v>95</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
         <v>11</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7">
-        <v>0.8929503916449086</v>
-      </c>
-      <c r="L7">
-        <v>342</v>
-      </c>
-      <c r="M7">
-        <v>342</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -840,13 +837,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5767195767195767</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C8">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D8">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -858,19 +855,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K8">
-        <v>0.8839285714285714</v>
+        <v>0.8936170212765957</v>
       </c>
       <c r="L8">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="M8">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -882,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -890,13 +887,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5254237288135594</v>
+        <v>0.5445736434108527</v>
       </c>
       <c r="C9">
-        <v>31</v>
+        <v>281</v>
       </c>
       <c r="D9">
-        <v>31</v>
+        <v>281</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -908,19 +905,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>28</v>
+        <v>235</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K9">
-        <v>0.8793103448275862</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L9">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="M9">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -932,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -940,13 +937,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5174418604651163</v>
+        <v>0.4576271186440678</v>
       </c>
       <c r="C10">
-        <v>267</v>
+        <v>27</v>
       </c>
       <c r="D10">
-        <v>267</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -958,19 +955,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>249</v>
+        <v>32</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K10">
-        <v>0.8773584905660378</v>
+        <v>0.8873239436619719</v>
       </c>
       <c r="L10">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="M10">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -982,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -990,87 +987,63 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.3466666666666667</v>
+        <v>0.3288590604026846</v>
       </c>
       <c r="C11">
+        <v>49</v>
+      </c>
+      <c r="D11">
+        <v>49</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>100</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D11">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>49</v>
-      </c>
-      <c r="J11" s="1" t="s">
+      <c r="K11">
+        <v>0.8839285714285714</v>
+      </c>
+      <c r="L11">
+        <v>99</v>
+      </c>
+      <c r="M11">
+        <v>99</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="J12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K11">
-        <v>0.875</v>
-      </c>
-      <c r="L11">
-        <v>112</v>
-      </c>
-      <c r="M11">
-        <v>112</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0.3154362416107382</v>
-      </c>
-      <c r="C12">
-        <v>47</v>
-      </c>
-      <c r="D12">
-        <v>47</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>102</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="K12">
-        <v>0.86875</v>
+        <v>0.8837209302325582</v>
       </c>
       <c r="L12">
-        <v>139</v>
+        <v>38</v>
       </c>
       <c r="M12">
-        <v>139</v>
+        <v>38</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1082,21 +1055,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13">
+        <v>0.8787878787878788</v>
+      </c>
+      <c r="L13">
         <v>29</v>
       </c>
-      <c r="K13">
-        <v>0.8611111111111112</v>
-      </c>
-      <c r="L13">
-        <v>31</v>
-      </c>
       <c r="M13">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1108,21 +1081,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K14">
-        <v>0.8604651162790697</v>
+        <v>0.86875</v>
       </c>
       <c r="L14">
-        <v>37</v>
+        <v>139</v>
       </c>
       <c r="M14">
-        <v>37</v>
+        <v>139</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1134,21 +1107,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K15">
-        <v>0.8536585365853658</v>
+        <v>0.8671875</v>
       </c>
       <c r="L15">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="M15">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1160,21 +1133,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K16">
-        <v>0.8484848484848485</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L16">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M16">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1191,16 +1164,16 @@
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K17">
-        <v>0.8333333333333334</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L17">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="M17">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1212,21 +1185,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K18">
-        <v>0.8297872340425532</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L18">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="M18">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1238,21 +1211,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K19">
-        <v>0.8</v>
+        <v>0.8253968253968254</v>
       </c>
       <c r="L19">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="M19">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1264,21 +1237,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K20">
-        <v>0.78</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L20">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M20">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1290,21 +1263,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K21">
-        <v>0.7708333333333334</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="L21">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="M21">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1316,21 +1289,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K22">
+        <v>0.76</v>
+      </c>
+      <c r="L22">
         <v>38</v>
       </c>
-      <c r="K22">
-        <v>0.7619047619047619</v>
-      </c>
-      <c r="L22">
-        <v>48</v>
-      </c>
       <c r="M22">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1342,21 +1315,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K23">
-        <v>0.7428571428571429</v>
+        <v>0.7264705882352941</v>
       </c>
       <c r="L23">
-        <v>26</v>
+        <v>247</v>
       </c>
       <c r="M23">
-        <v>26</v>
+        <v>247</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1368,21 +1341,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>9</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K24">
-        <v>0.7294117647058823</v>
+        <v>0.7112970711297071</v>
       </c>
       <c r="L24">
-        <v>248</v>
+        <v>170</v>
       </c>
       <c r="M24">
-        <v>248</v>
+        <v>170</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1394,21 +1367,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>92</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K25">
-        <v>0.7112970711297071</v>
+        <v>0.6915254237288135</v>
       </c>
       <c r="L25">
-        <v>170</v>
+        <v>204</v>
       </c>
       <c r="M25">
-        <v>170</v>
+        <v>204</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1420,21 +1393,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>69</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K26">
-        <v>0.7074829931972789</v>
+        <v>0.6702127659574468</v>
       </c>
       <c r="L26">
-        <v>208</v>
+        <v>63</v>
       </c>
       <c r="M26">
-        <v>209</v>
+        <v>63</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1443,24 +1416,24 @@
         <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>86</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K27">
+        <v>0.6615384615384615</v>
+      </c>
+      <c r="L27">
         <v>43</v>
       </c>
-      <c r="K27">
-        <v>0.7021276595744681</v>
-      </c>
-      <c r="L27">
-        <v>66</v>
-      </c>
       <c r="M27">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1472,21 +1445,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K28">
-        <v>0.6629213483146067</v>
+        <v>0.651685393258427</v>
       </c>
       <c r="L28">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M28">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1498,21 +1471,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K29">
-        <v>0.6615384615384615</v>
+        <v>0.65</v>
       </c>
       <c r="L29">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="M29">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1524,21 +1497,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K30">
-        <v>0.5714285714285714</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L30">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="M30">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1550,21 +1523,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K31">
-        <v>0.5098039215686274</v>
+        <v>0.6078431372549019</v>
       </c>
       <c r="L31">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M31">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1576,21 +1549,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K32">
-        <v>0.4383561643835616</v>
+        <v>0.5256410256410257</v>
       </c>
       <c r="L32">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="M32">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1602,21 +1575,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K33">
-        <v>0.3333333333333333</v>
+        <v>0.4931506849315068</v>
       </c>
       <c r="L33">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="M33">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1628,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
